--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\kazuki\workspace\private\MdTestSpec2Excel\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A88F4C-13D6-455A-B449-4C6C9E971B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226E1F3-8F0D-416F-8F0E-5E04DCAF45D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="-120" windowWidth="26055" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="-120" windowWidth="26055" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="7" r:id="rId1"/>
@@ -458,7 +458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,19 +480,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -501,12 +495,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,31 +510,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -565,6 +541,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -658,7 +637,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s7422"/>
+                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s7425"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -727,7 +706,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s6395"/>
+                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s6398"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -796,7 +775,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s17423"/>
+                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s17428"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -865,7 +844,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s1294"/>
+                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s1298"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1206,7 +1185,7 @@
   </sheetPr>
   <dimension ref="A4:E31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1234,189 +1213,189 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="9"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="9"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="9"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="9"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="9"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="9"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="9"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="9"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="9"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="9"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="9"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="9"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="9"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="9"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="9"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1450,10 +1429,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1468,10 +1447,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="8" t="str">
         <f t="shared" ref="D5:D12" si="0">IF( $A5 &lt;&gt; "", HYPERLINK( "#'" &amp;  $A5 &amp; "'!A1", "リンク" ), "" )</f>
         <v/>
       </c>
@@ -1485,10 +1464,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1502,10 +1481,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1519,10 +1498,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10" t="str">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1536,10 +1515,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10" t="str">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1553,10 +1532,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10" t="str">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1570,10 +1549,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10" t="str">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1587,10 +1566,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10" t="str">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1604,10 +1583,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10" t="str">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8" t="str">
         <f t="shared" ref="D13:D16" si="2">IF( $A13 &lt;&gt; "", HYPERLINK( "#'" &amp;  $A13 &amp; "'!A1", "リンク" ), "" )</f>
         <v/>
       </c>
@@ -1621,10 +1600,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10" t="str">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1638,10 +1617,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10" t="str">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1654,11 +1633,11 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" s="13" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12" t="str">
+    <row r="16" spans="1:6" s="11" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1672,10 +1651,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10" t="str">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8" t="str">
         <f>IF( $A17 &lt;&gt; "", HYPERLINK( "#'" &amp;  $A17 &amp; "'!A1", "リンク" ), "" )</f>
         <v/>
       </c>
@@ -1689,10 +1668,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10" t="str">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8" t="str">
         <f>IF( $A18 &lt;&gt; "", HYPERLINK( "#'" &amp;  $A18 &amp; "'!A1", "リンク" ), "" )</f>
         <v/>
       </c>
@@ -1739,7 +1718,7 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1747,14 +1726,14 @@
     <col min="4" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="8" width="44.125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="12" style="16" customWidth="1"/>
-    <col min="11" max="11" width="12" style="17" customWidth="1"/>
+    <col min="10" max="10" width="12" style="12" customWidth="1"/>
+    <col min="11" max="11" width="12" style="13" customWidth="1"/>
     <col min="12" max="12" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="J1"/>
-      <c r="L1" s="20" t="str">
+      <c r="L1" s="16" t="str">
         <f>HYPERLINK( "#'テストパターン一覧'!A1", "一覧へ" )</f>
         <v>一覧へ</v>
       </c>
@@ -1766,30 +1745,28 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="7"/>
-      <c r="I4" s="24" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="14">
         <f ca="1">COUNTA(C:C) - COUNTA($C$1:$C$6)</f>
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="14" t="str">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",C1),LEN(CELL("filename",C1))-FIND("]",CELL("filename",C1)))</f>
         <v>S1_0001</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="4">
@@ -1798,11 +1775,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1832,15 +1809,15 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="23">
+      <c r="A7" s="17">
         <f ca="1">IF(D7="", OFFSET(A7,-1,0), IF( ISNUMBER(OFFSET(A7,-1,0)), OFFSET(A7,-1,0) + 1, 1 ) )</f>
         <v>1</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="17">
         <f ca="1">IF($E7="", OFFSET($B7,-1,0), IF( $D7 = "", IF( ISNUMBER(OFFSET(B7,-1,0)), OFFSET(B7,-1,0) + 1, 1 ), 1 ) )</f>
         <v>1</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="17">
         <f ca="1">IF($E7="", IF( ISNUMBER(OFFSET(C7,-1,0)), OFFSET(C7,-1,0) + 1, 1 ), 1 )</f>
         <v>1</v>
       </c>
@@ -1860,24 +1837,24 @@
         <v>32</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="2"/>
       <c r="L7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="19">
+      <c r="A8" s="15">
         <f t="shared" ref="A8:A14" ca="1" si="0">IF(D8="", OFFSET(A8,-1,0), IF( ISNUMBER(OFFSET(A8,-1,0)), OFFSET(A8,-1,0) + 1, 1 ) )</f>
         <v>1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <f t="shared" ref="B8:B14" ca="1" si="1">IF($E8="", OFFSET($B8,-1,0), IF( $D8 = "", IF( ISNUMBER(OFFSET(B8,-1,0)), OFFSET(B8,-1,0) + 1, 1 ), 1 ) )</f>
         <v>1</v>
       </c>
-      <c r="C8" s="19">
-        <f t="shared" ref="C8:C14" ca="1" si="2">IF($E8="", IF( ISNUMBER(OFFSET(C8,-1,0)), OFFSET(C8,-1,0) + 1, 1 ), 1 )</f>
-        <v>2</v>
+      <c r="C8" s="15" t="str">
+        <f ca="1">IF( $F8 &lt;&gt; "", IF($E8="", IF( ISNUMBER(OFFSET(C8,-1,0)), OFFSET(C8,-1,0) + 1, 1 ), 1 ), "" )</f>
+        <v/>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1885,22 +1862,22 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="19">
+      <c r="A9" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="C9" s="19">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="C9" s="15" t="str">
+        <f t="shared" ref="C9:C14" ca="1" si="2">IF( $F9 &lt;&gt; "", IF($E9="", IF( ISNUMBER(OFFSET(C9,-1,0)), OFFSET(C9,-1,0) + 1, 1 ), 1 ), "" )</f>
+        <v/>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1908,22 +1885,22 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="19">
+      <c r="A10" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1931,22 +1908,22 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="15">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1954,22 +1931,22 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1977,22 +1954,22 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="2"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="19">
+      <c r="A13" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="15">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2000,22 +1977,22 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="23">
+      <c r="A14" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2023,7 +2000,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
     </row>
@@ -2064,9 +2041,7 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2074,14 +2049,14 @@
     <col min="4" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="8" width="44.125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="12" style="16" customWidth="1"/>
-    <col min="11" max="11" width="12" style="17" customWidth="1"/>
+    <col min="10" max="10" width="12" style="12" customWidth="1"/>
+    <col min="11" max="11" width="12" style="13" customWidth="1"/>
     <col min="12" max="12" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="J1"/>
-      <c r="L1" s="20" t="str">
+      <c r="L1" s="16" t="str">
         <f>HYPERLINK( "#'テストパターン一覧'!A1", "一覧へ" )</f>
         <v>一覧へ</v>
       </c>
@@ -2093,26 +2068,24 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="14">
         <f ca="1">COUNTA(C:C) - COUNTA($C$1:$C$6)</f>
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="14" t="str">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",C1),LEN(CELL("filename",C1))-FIND("]",CELL("filename",C1)))</f>
         <v>Template</v>
       </c>
@@ -2125,11 +2098,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
@@ -2159,15 +2132,15 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="23" t="str">
+      <c r="A7" s="17" t="str">
         <f ca="1">IF(D7="", OFFSET(A7,-1,0), IF( ISNUMBER(OFFSET(A7,-1,0)), OFFSET(A7,-1,0) + 1, 1 ) )</f>
         <v>ケースID</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="17">
         <f ca="1">IF($E7="", OFFSET($B7,-1,0), IF( $D7 = "", IF( ISNUMBER(OFFSET(B7,-1,0)), OFFSET(B7,-1,0) + 1, 1 ), 1 ) )</f>
         <v>0</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="17">
         <f ca="1">IF($E7="", IF( ISNUMBER(OFFSET(C7,-1,0)), OFFSET(C7,-1,0) + 1, 1 ), 1 )</f>
         <v>1</v>
       </c>
@@ -2177,22 +2150,22 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="2"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="19" t="str">
+      <c r="A8" s="15" t="str">
         <f t="shared" ref="A8" ca="1" si="0">IF(D8="", OFFSET(A8,-1,0), IF( ISNUMBER(OFFSET(A8,-1,0)), OFFSET(A8,-1,0) + 1, 1 ) )</f>
         <v>ケースID</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <f t="shared" ref="B8:B14" ca="1" si="1">IF($E8="", OFFSET($B8,-1,0), IF( $D8 = "", IF( ISNUMBER(OFFSET(B8,-1,0)), OFFSET(B8,-1,0) + 1, 1 ), 1 ) )</f>
         <v>0</v>
       </c>
-      <c r="C8" s="19">
-        <f t="shared" ref="C8:C14" ca="1" si="2">IF($E8="", IF( ISNUMBER(OFFSET(C8,-1,0)), OFFSET(C8,-1,0) + 1, 1 ), 1 )</f>
-        <v>2</v>
+      <c r="C8" s="15" t="str">
+        <f ca="1">IF( $F8 &lt;&gt; "", IF($E8="", IF( ISNUMBER(OFFSET(C8,-1,0)), OFFSET(C8,-1,0) + 1, 1 ), 1 ), "" )</f>
+        <v/>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2200,22 +2173,22 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="19" t="str">
-        <f t="shared" ref="A9:A14" ca="1" si="3">IF(D9="", OFFSET(A9,-1,0), IF( ISNUMBER(OFFSET(A9,-1,0)), OFFSET(A9,-1,0) + 1, 1 ) )</f>
+      <c r="A9" s="15" t="str">
+        <f t="shared" ref="A9:A14" ca="1" si="2">IF(D9="", OFFSET(A9,-1,0), IF( ISNUMBER(OFFSET(A9,-1,0)), OFFSET(A9,-1,0) + 1, 1 ) )</f>
         <v>ケースID</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="C9" s="19">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+      <c r="C9" s="15" t="str">
+        <f t="shared" ref="C9:C14" ca="1" si="3">IF( $F9 &lt;&gt; "", IF($E9="", IF( ISNUMBER(OFFSET(C9,-1,0)), OFFSET(C9,-1,0) + 1, 1 ), 1 ), "" )</f>
+        <v/>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2223,22 +2196,22 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="19" t="str">
+      <c r="A10" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ケースID</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ケースID</v>
-      </c>
-      <c r="B10" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="19">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2246,22 +2219,22 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="19" t="str">
+      <c r="A11" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ケースID</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ケースID</v>
-      </c>
-      <c r="B11" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="19">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2269,22 +2242,22 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="19" t="str">
+      <c r="A12" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ケースID</v>
+      </c>
+      <c r="B12" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ケースID</v>
-      </c>
-      <c r="B12" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="19">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2292,22 +2265,22 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="2"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="19" t="str">
+      <c r="A13" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ケースID</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ケースID</v>
-      </c>
-      <c r="B13" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="19">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2315,22 +2288,22 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="23" t="str">
+      <c r="A14" s="17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ケースID</v>
+      </c>
+      <c r="B14" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ケースID</v>
-      </c>
-      <c r="B14" s="23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2338,7 +2311,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
     </row>
@@ -2359,7 +2332,7 @@
       <formula>AND( $A8 = OFFSET( $A8, -1, 0 ), $B8 = OFFSET( $B8, -1, 0 ) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14" xr:uid="{1AD25D08-B572-42C2-A978-77276DE99794}">
       <formula1>"OK,NG,NG→OK"</formula1>
     </dataValidation>
@@ -2397,11 +2370,11 @@
       <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\kazuki\workspace\private\MdTestSpec2Excel\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226E1F3-8F0D-416F-8F0E-5E04DCAF45D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3085AE75-1BB0-46AC-9066-3316120CE2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2865" yWindow="-120" windowWidth="26055" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,6 +513,9 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,15 +528,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -543,8 +537,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -637,7 +637,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s7425"/>
+                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s7433"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -706,7 +706,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s6398"/>
+                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s6406"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -775,7 +775,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s17428"/>
+                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s17436"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -844,7 +844,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s1298"/>
+                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s1306"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1429,10 +1429,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1447,8 +1447,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="4"/>
       <c r="D5" s="8" t="str">
         <f t="shared" ref="D5:D12" si="0">IF( $A5 &lt;&gt; "", HYPERLINK( "#'" &amp;  $A5 &amp; "'!A1", "リンク" ), "" )</f>
@@ -1464,8 +1464,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4"/>
       <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1481,8 +1481,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="4"/>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1498,8 +1498,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="4"/>
       <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1515,8 +1515,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="4"/>
       <c r="D9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1532,8 +1532,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="4"/>
       <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1549,8 +1549,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="4"/>
       <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1566,8 +1566,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="4"/>
       <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1583,8 +1583,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="4"/>
       <c r="D13" s="8" t="str">
         <f t="shared" ref="D13:D16" si="2">IF( $A13 &lt;&gt; "", HYPERLINK( "#'" &amp;  $A13 &amp; "'!A1", "リンク" ), "" )</f>
@@ -1600,8 +1600,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="4"/>
       <c r="D14" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1617,8 +1617,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="4"/>
       <c r="D15" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1634,8 +1634,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1651,8 +1651,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="4"/>
       <c r="D17" s="8" t="str">
         <f>IF( $A17 &lt;&gt; "", HYPERLINK( "#'" &amp;  $A17 &amp; "'!A1", "リンク" ), "" )</f>
@@ -1668,8 +1668,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4"/>
       <c r="D18" s="8" t="str">
         <f>IF( $A18 &lt;&gt; "", HYPERLINK( "#'" &amp;  $A18 &amp; "'!A1", "リンク" ), "" )</f>
@@ -1745,23 +1745,23 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="14">
         <f ca="1">COUNTA(C:C) - COUNTA($C$1:$C$6)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",C1),LEN(CELL("filename",C1))-FIND("]",CELL("filename",C1)))</f>
         <v>S1_0001</v>
@@ -1775,11 +1775,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>32</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="28"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="2"/>
       <c r="L7" s="1" t="s">
         <v>34</v>
@@ -1862,152 +1862,97 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="28"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B9" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C9" s="15" t="str">
-        <f t="shared" ref="C9:C14" ca="1" si="2">IF( $F9 &lt;&gt; "", IF($E9="", IF( ISNUMBER(OFFSET(C9,-1,0)), OFFSET(C9,-1,0) + 1, 1 ), 1 ), "" )</f>
-        <v/>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="28"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B10" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C10" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="28"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B11" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C11" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="28"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B12" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C12" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="28"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="2"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B13" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C13" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="28"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B14" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C14" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="28"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -2068,23 +2013,23 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="14">
         <f ca="1">COUNTA(C:C) - COUNTA($C$1:$C$6)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",C1),LEN(CELL("filename",C1))-FIND("]",CELL("filename",C1)))</f>
         <v>Template</v>
@@ -2098,11 +2043,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
@@ -2150,7 +2095,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="28"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="2"/>
       <c r="L7" s="1"/>
     </row>
@@ -2173,153 +2118,98 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="28"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="15" t="str">
-        <f t="shared" ref="A9:A14" ca="1" si="2">IF(D9="", OFFSET(A9,-1,0), IF( ISNUMBER(OFFSET(A9,-1,0)), OFFSET(A9,-1,0) + 1, 1 ) )</f>
-        <v>ケースID</v>
-      </c>
-      <c r="B9" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="15" t="str">
-        <f t="shared" ref="C9:C14" ca="1" si="3">IF( $F9 &lt;&gt; "", IF($E9="", IF( ISNUMBER(OFFSET(C9,-1,0)), OFFSET(C9,-1,0) + 1, 1 ), 1 ), "" )</f>
-        <v/>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="28"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>ケースID</v>
-      </c>
-      <c r="B10" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="15" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="28"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>ケースID</v>
-      </c>
-      <c r="B11" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="15" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="28"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>ケースID</v>
-      </c>
-      <c r="B12" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="15" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="28"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="2"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>ケースID</v>
-      </c>
-      <c r="B13" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="15" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="28"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>ケースID</v>
-      </c>
-      <c r="B14" s="17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="17" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="28"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D8:D14 A8:A14">

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\kazuki\workspace\private\MdTestSpec2Excel\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3085AE75-1BB0-46AC-9066-3316120CE2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA3627C-C268-4EC7-8A95-713C142900B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2865" yWindow="-120" windowWidth="26055" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,8 @@
           </rPr>
           <t xml:space="preserve">
 jx:area(lastCell="L7")
-jx:each(items="mdSpec.cases" var="case" lastCell="L7")</t>
+jx:each(items="mdSpec.cases" var="case" lastCell="L7")
+jx:autoRowHeight(lastCell="L7")</t>
         </r>
       </text>
     </comment>
@@ -516,6 +517,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,15 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -637,7 +638,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s7433"/>
+                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s7439"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -706,7 +707,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s6406"/>
+                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s6412"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -775,7 +776,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s17436"/>
+                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s17442"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -844,7 +845,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s1306"/>
+                  <a14:cameraTool cellRange="__Header__!$A$1:$G$2" spid="_x0000_s1312"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1429,10 +1430,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1447,8 +1448,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4"/>
       <c r="D5" s="8" t="str">
         <f t="shared" ref="D5:D12" si="0">IF( $A5 &lt;&gt; "", HYPERLINK( "#'" &amp;  $A5 &amp; "'!A1", "リンク" ), "" )</f>
@@ -1464,8 +1465,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="4"/>
       <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1481,8 +1482,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="4"/>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1498,8 +1499,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="4"/>
       <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1515,8 +1516,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="4"/>
       <c r="D9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1532,8 +1533,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="4"/>
       <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1549,8 +1550,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="4"/>
       <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1566,8 +1567,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="4"/>
       <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1583,8 +1584,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="4"/>
       <c r="D13" s="8" t="str">
         <f t="shared" ref="D13:D16" si="2">IF( $A13 &lt;&gt; "", HYPERLINK( "#'" &amp;  $A13 &amp; "'!A1", "リンク" ), "" )</f>
@@ -1600,8 +1601,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="4"/>
       <c r="D14" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1617,8 +1618,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="4"/>
       <c r="D15" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1634,8 +1635,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1651,8 +1652,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="4"/>
       <c r="D17" s="8" t="str">
         <f>IF( $A17 &lt;&gt; "", HYPERLINK( "#'" &amp;  $A17 &amp; "'!A1", "リンク" ), "" )</f>
@@ -1668,8 +1669,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="4"/>
       <c r="D18" s="8" t="str">
         <f>IF( $A18 &lt;&gt; "", HYPERLINK( "#'" &amp;  $A18 &amp; "'!A1", "リンク" ), "" )</f>
@@ -1745,9 +1746,9 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1757,11 +1758,11 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",C1),LEN(CELL("filename",C1))-FIND("]",CELL("filename",C1)))</f>
         <v>S1_0001</v>
@@ -1775,11 +1776,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1845,11 +1846,11 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="15">
-        <f t="shared" ref="A8:A14" ca="1" si="0">IF(D8="", OFFSET(A8,-1,0), IF( ISNUMBER(OFFSET(A8,-1,0)), OFFSET(A8,-1,0) + 1, 1 ) )</f>
+        <f t="shared" ref="A8" ca="1" si="0">IF(D8="", OFFSET(A8,-1,0), IF( ISNUMBER(OFFSET(A8,-1,0)), OFFSET(A8,-1,0) + 1, 1 ) )</f>
         <v>1</v>
       </c>
       <c r="B8" s="15">
-        <f t="shared" ref="B8:B14" ca="1" si="1">IF($E8="", OFFSET($B8,-1,0), IF( $D8 = "", IF( ISNUMBER(OFFSET(B8,-1,0)), OFFSET(B8,-1,0) + 1, 1 ), 1 ) )</f>
+        <f t="shared" ref="B8" ca="1" si="1">IF($E8="", OFFSET($B8,-1,0), IF( $D8 = "", IF( ISNUMBER(OFFSET(B8,-1,0)), OFFSET(B8,-1,0) + 1, 1 ), 1 ) )</f>
         <v>1</v>
       </c>
       <c r="C8" s="15" t="str">
@@ -2013,9 +2014,9 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
@@ -2025,11 +2026,11 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",C1),LEN(CELL("filename",C1))-FIND("]",CELL("filename",C1)))</f>
         <v>Template</v>
@@ -2043,11 +2044,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>ケースID</v>
       </c>
       <c r="B8" s="15">
-        <f t="shared" ref="B8:B14" ca="1" si="1">IF($E8="", OFFSET($B8,-1,0), IF( $D8 = "", IF( ISNUMBER(OFFSET(B8,-1,0)), OFFSET(B8,-1,0) + 1, 1 ), 1 ) )</f>
+        <f t="shared" ref="B8" ca="1" si="1">IF($E8="", OFFSET($B8,-1,0), IF( $D8 = "", IF( ISNUMBER(OFFSET(B8,-1,0)), OFFSET(B8,-1,0) + 1, 1 ), 1 ) )</f>
         <v>0</v>
       </c>
       <c r="C8" s="15" t="str">
